--- a/hybridOfActiTimeProject/data/ActiTimeTestData.xlsx
+++ b/hybridOfActiTimeProject/data/ActiTimeTestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="6135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="6135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidData" sheetId="1" r:id="rId1"/>
-    <sheet name="CreateUser" sheetId="3" r:id="rId2"/>
-    <sheet name="InvalidData" sheetId="2" r:id="rId3"/>
+    <sheet name="Manager" sheetId="3" r:id="rId2"/>
+    <sheet name="CustomerAndProject" sheetId="4" r:id="rId3"/>
+    <sheet name="InvalidData" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Password</t>
   </si>
@@ -65,16 +66,28 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>testEng</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>ab12</t>
+  </si>
+  <si>
+    <t>Manager1</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>FirstManager</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>SBI Bank</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>WebApplication</t>
   </si>
 </sst>
 </file>
@@ -211,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -225,6 +238,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,16 +588,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -592,6 +607,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
